--- a/First semester/Introduction to IT/lab/Excel/marksheet.xlsx
+++ b/First semester/Introduction to IT/lab/Excel/marksheet.xlsx
@@ -136,11 +136,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -207,7 +207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -389,19 +388,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,19 +472,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,19 +556,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,19 +640,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>70</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,7 +793,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -906,7 +904,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1088,19 +1085,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,19 +1169,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,19 +1253,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,19 +1337,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>70</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,7 +1490,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3222,7 +3218,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3238,268 +3234,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>68</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>72</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>69</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>65</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>76</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="0">SUM(C3:G3)</f>
         <v>350</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f>H3/5</f>
         <v>70</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="2" t="str">
         <f>IF(AND(C3&gt;=40, D3&gt;=40, E3&gt;=40, F3&gt;=40, G3&gt;=40), "pass", "fail")</f>
         <v>pass</v>
       </c>
-      <c r="K3" s="3" t="str">
+      <c r="K3" s="2" t="str">
         <f>IF(I3&gt;=90, "A+", IF(I3&gt;=80, "A", IF(I3&gt;=70, "B+", IF(I3&gt;=60, "B", IF(I3&gt;=50, "C+", IF(I3&gt;=40, "C", "NG"))))))</f>
         <v>B+</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f ca="1">RANDBETWEEN(30, 90)</f>
-        <v>75</v>
-      </c>
-      <c r="D4" s="3">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" ref="D4:G7" ca="1" si="1">RANDBETWEEN(30, 90)</f>
-        <v>54</v>
-      </c>
-      <c r="E4" s="3">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="F4" s="3">
+        <v>67</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G4" s="3">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="H4" s="3">
+        <v>86</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>275</v>
-      </c>
-      <c r="I4" s="3">
+        <v>322</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" ref="I4:I7" ca="1" si="2">H4/5</f>
-        <v>55</v>
-      </c>
-      <c r="J4" s="3" t="str">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="J4" s="2" t="str">
         <f ca="1">IF(AND(C4&gt;=40, D4&gt;=40, E4&gt;=40, F4&gt;=40, G4&gt;=40), "pass", "fail")</f>
         <v>fail</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K7" ca="1" si="3">IF(I4&gt;=90, "A+", IF(I4&gt;=80, "A", IF(I4&gt;=70, "B+", IF(I4&gt;=60, "B", IF(I4&gt;=50, "C+", IF(I4&gt;=40, "C", "NG"))))))</f>
-        <v>C+</v>
+        <v>B</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C7" ca="1" si="4">RANDBETWEEN(30, 90)</f>
-        <v>45</v>
-      </c>
-      <c r="D5" s="3">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="E5" s="3">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="F5" s="3">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="G5" s="3">
+        <v>72</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="H5" s="3">
+        <v>70</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>286</v>
-      </c>
-      <c r="I5" s="3">
+        <v>398</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>57.2</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" ref="J4:J7" ca="1" si="5">IF(AND(C5&gt;=40, D5&gt;=40, E5&gt;=40, F5&gt;=40, G5&gt;=40), "pass", "fail")</f>
+        <v>79.599999999999994</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" ref="J5:J7" ca="1" si="5">IF(AND(C5&gt;=40, D5&gt;=40, E5&gt;=40, F5&gt;=40, G5&gt;=40), "pass", "fail")</f>
         <v>pass</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="K5" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C+</v>
+        <v>B+</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="D6" s="3">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="E6" s="3">
+        <v>89</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="F6" s="3">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="G6" s="3">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="H6" s="3">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>309</v>
-      </c>
-      <c r="I6" s="3">
+        <v>314</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>61.8</v>
-      </c>
-      <c r="J6" s="3" t="str">
+        <v>62.8</v>
+      </c>
+      <c r="J6" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>pass</v>
-      </c>
-      <c r="K6" s="3" t="str">
+        <v>fail</v>
+      </c>
+      <c r="K6" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>B</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" ca="1" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="E7" s="3">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="F7" s="3">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="H7" s="3">
+        <v>88</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
-      </c>
-      <c r="I7" s="3">
+        <v>247</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>52.2</v>
-      </c>
-      <c r="J7" s="3" t="str">
+        <v>49.4</v>
+      </c>
+      <c r="J7" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>fail</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C+</v>
+        <v>C</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3533,111 +3529,111 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:H23"/>
-    <mergeCell ref="A9:H11"/>
-    <mergeCell ref="A13:H15"/>
-    <mergeCell ref="A17:H19"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A21:H23"/>
+    <mergeCell ref="A9:H11"/>
+    <mergeCell ref="A13:H15"/>
+    <mergeCell ref="A17:H19"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
